--- a/config/region/oromia/model_inputs_demo_oromia.xlsx
+++ b/config/region/oromia/model_inputs_demo_oromia.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bmgf-my.sharepoint.com/personal/rui_han_gatesfoundation_org/Documents/Documents/GitHub/PACE-HRH-UI/config/region/oromia/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{F91E67F1-915D-4467-BEB8-0F35F36DEAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48841A7D-62DA-4774-8832-D73BDA4BB74B}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A853B995-B970-4485-A16D-5E58BF17D9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="21600" windowHeight="11018" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="77" r:id="rId1"/>
@@ -31,9 +26,6 @@
     <sheet name="Data dictionary Scenarios" sheetId="63" r:id="rId16"/>
     <sheet name="Lookup" sheetId="84" r:id="rId17"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId18"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">TaskValues_basic!$B$1:$Q$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">TaskValues_expanded!$B$1:$P$22</definedName>
@@ -45,8 +37,8 @@
     <definedName name="total_pop" localSheetId="5">RuralPop!#REF!</definedName>
     <definedName name="total_pop" localSheetId="4">TotalPop!#REF!</definedName>
     <definedName name="total_pop">#REF!</definedName>
-    <definedName name="total_pop2" localSheetId="3">[1]Demographics_Total!$CZ$3</definedName>
-    <definedName name="total_pop2">[1]Demographics_Total!$CZ$3</definedName>
+    <definedName name="total_pop2" localSheetId="3">#REF!</definedName>
+    <definedName name="total_pop2">#REF!</definedName>
     <definedName name="weeks" localSheetId="3">#REF!</definedName>
     <definedName name="weeks">#REF!</definedName>
   </definedNames>
@@ -190,7 +182,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Rui Han (AgileOne)</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
@@ -226,7 +218,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Rui Han (AgileOne):</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -248,7 +240,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Rui Han (AgileOne)</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
@@ -261,7 +253,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Rui Han (AgileOne):</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -282,7 +274,7 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Rui Han (AgileOne)</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
@@ -295,7 +287,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Rui Han (AgileOne):</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -2405,3083 +2397,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100401" name="Text Box 1073" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60FDE31F-3E35-D498-570C-2E61B7D3F842}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2025650" y="0"/>
-          <a:ext cx="1308100" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100400" name="Text Box 1072" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{493CB8A2-C5BD-A067-C657-026050A2668C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2717800" y="0"/>
-          <a:ext cx="1301750" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100399" name="Text Box 1071" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8926DD53-44B3-4267-9207-9FF6144F53C7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4781550" y="0"/>
-          <a:ext cx="1371600" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100398" name="Text Box 1070" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{707CA04E-4294-8F33-76BC-007E51A75BD2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5657850" y="0"/>
-          <a:ext cx="1333500" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>290830</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100397" name="Text Box 1069" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0096999B-EE98-E3C1-7ED2-D2F0A4B0123F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7219950" y="0"/>
-          <a:ext cx="1295400" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>138430</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>786130</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100396" name="Text Box 1068" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1087B49C-AA3F-677A-39A7-8745E3FC07E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7645400" y="0"/>
-          <a:ext cx="1365250" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>176530</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>328930</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100395" name="Text Box 1067" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B28FB96-7594-F94A-5E0D-3EC445495809}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1358900" y="0"/>
-          <a:ext cx="1301750" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100394" name="Text Box 1066" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09751DAA-8407-064C-8465-42786D89A6BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9182100" y="0"/>
-          <a:ext cx="1301750" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1052830</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100393" name="Text Box 1065" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E864A309-7FD2-D78D-37DD-92AADF11589F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10388600" y="0"/>
-          <a:ext cx="1149350" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100392" name="Text Box 1064" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D50393CD-9D44-DF44-F1B3-0CAB4D2A3DED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11537950" y="0"/>
-          <a:ext cx="533400" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>176530</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100391" name="Text Box 1063" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFEB6971-2D3E-DC99-90BE-CD4C906F4F7A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11918950" y="0"/>
-          <a:ext cx="552450" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>24130</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>800100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100390" name="Text Box 1062" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0F52228-75E5-C071-25B3-9C7854AE4F2F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12299950" y="19050"/>
-          <a:ext cx="762000" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100389" name="Text Box 1061" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{638CE949-E549-3562-F290-4912EED3DEEC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2025650" y="0"/>
-          <a:ext cx="1308100" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100388" name="Text Box 1060" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54F620D6-B160-B9DC-5D93-736286DF21D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2717800" y="0"/>
-          <a:ext cx="1301750" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100387" name="Text Box 1059" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CEE690F-587E-181B-FFB2-910AB4A5C712}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4781550" y="0"/>
-          <a:ext cx="1371600" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100386" name="Text Box 1058" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E8CD4B0-447F-1FE5-0E22-A4E15C43D99E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5657850" y="0"/>
-          <a:ext cx="1333500" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>290830</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100385" name="Text Box 1057" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{688A19E2-6B70-8333-C86C-319D45426C75}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7219950" y="0"/>
-          <a:ext cx="1295400" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>138430</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>786130</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100384" name="Text Box 1056" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4E99E20-8A5C-0A16-1D49-04495F295D9E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7645400" y="0"/>
-          <a:ext cx="1365250" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>176530</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>328930</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100383" name="Text Box 1055" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15B1AFD3-D68C-1CA7-9AE9-CC517040C4BC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1358900" y="0"/>
-          <a:ext cx="1301750" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100382" name="Text Box 1054" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DDC6D0F-C34D-6DDA-D4D5-639105F982A4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9182100" y="0"/>
-          <a:ext cx="1301750" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1052830</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100381" name="Text Box 1053" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BF75973-825F-9719-16FF-21B677DC8C6C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10388600" y="0"/>
-          <a:ext cx="1149350" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100380" name="Text Box 1052" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC69A30C-E651-57DB-FBDF-7008B0B992F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11537950" y="0"/>
-          <a:ext cx="533400" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>176530</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100379" name="Text Box 1051" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C96063A-918F-AB1C-CFBE-61E35543806C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11918950" y="0"/>
-          <a:ext cx="552450" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>24130</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>800100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100378" name="Text Box 1050" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F3C7936-5C09-64A4-A120-C7C51F64E3D3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12299950" y="19050"/>
-          <a:ext cx="762000" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100377" name="Text Box 1049" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9947CD98-1584-7415-B204-608762EA804A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2025650" y="0"/>
-          <a:ext cx="1308100" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100376" name="Text Box 1048" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E8FA19-0E52-499F-BBFC-6BCE18DD4BE0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2717800" y="0"/>
-          <a:ext cx="1301750" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100375" name="Text Box 1047" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D4EC292-4026-B872-D456-933F8C548F5C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4781550" y="0"/>
-          <a:ext cx="1371600" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100374" name="Text Box 1046" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F68E94-84AB-6464-9B4A-639C333633E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5657850" y="0"/>
-          <a:ext cx="1333500" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>290830</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100373" name="Text Box 1045" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80ABC83A-3C92-9C17-D7E0-BC33ABDEC836}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7219950" y="0"/>
-          <a:ext cx="1295400" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>138430</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>786130</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100372" name="Text Box 1044" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BEF89B3-BB8D-8DA5-E28F-61E6AF1DF5A7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7645400" y="0"/>
-          <a:ext cx="1365250" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>176530</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>328930</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100371" name="Text Box 1043" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA6CD012-B550-6352-16C8-5BFE6F99CEAD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1358900" y="0"/>
-          <a:ext cx="1301750" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100370" name="Text Box 1042" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB1EFB85-D41D-C296-E24F-015DB56ACBCF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9182100" y="0"/>
-          <a:ext cx="1301750" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1052830</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100369" name="Text Box 1041" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27641EB7-8B93-7B0B-0E22-F0284984AF02}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10388600" y="0"/>
-          <a:ext cx="1149350" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100368" name="Text Box 1040" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{325BCEB5-4A10-E22B-BA51-524568298AD6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11537950" y="0"/>
-          <a:ext cx="533400" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>176530</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100367" name="Text Box 1039" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7329FB4B-F1ED-FD50-ECE0-6545AB4E38E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11918950" y="0"/>
-          <a:ext cx="552450" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>24130</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>800100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100366" name="Text Box 1038" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F331E54D-5046-56F6-6E04-2EDFCE67511E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12299950" y="19050"/>
-          <a:ext cx="762000" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100353" name="Text Box 1025" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79E85AE2-9E63-D497-4830-04365351A3FD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2025650" y="0"/>
-          <a:ext cx="1308100" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="510000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="510000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100354" name="Text Box 1026" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D0211F2-7F39-A00E-B58F-097DE0066202}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2717800" y="0"/>
-          <a:ext cx="1301750" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="510000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="510000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100355" name="Text Box 1027" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B41B37F-C6BE-EF92-A8B3-955B7E13AABA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4781550" y="0"/>
-          <a:ext cx="1371600" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="510000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="510000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100356" name="Text Box 1028" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{046450D6-0613-D584-1920-B0DBBCA181F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5657850" y="0"/>
-          <a:ext cx="1333500" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="510000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="510000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>290830</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100357" name="Text Box 1029" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9EC65C6-B4E8-57BC-AE8B-FDD74C9B850C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7219950" y="0"/>
-          <a:ext cx="1295400" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="510000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="510000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>138430</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>786130</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100358" name="Text Box 1030" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{641C2CF7-D2D1-27B8-203A-3450F7C4DCA6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7645400" y="0"/>
-          <a:ext cx="1365250" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="510000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="510000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>176530</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>328930</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100359" name="Text Box 1031" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3130B20D-129D-4E14-F35A-4BC322E5DA1A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1358900" y="0"/>
-          <a:ext cx="1301750" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="510000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="510000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100360" name="Text Box 1032" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CC82C79-9C1C-C270-2676-FCD619CE1737}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9182100" y="0"/>
-          <a:ext cx="1301750" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="510000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="510000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1052830</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100361" name="Text Box 1033" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{368292B3-5141-F83B-4D9A-51FB4E909021}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10388600" y="0"/>
-          <a:ext cx="1149350" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="510000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="510000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100362" name="Text Box 1034" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{511429F8-F246-1CDF-CB6A-490B6540BCF2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11537950" y="0"/>
-          <a:ext cx="533400" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="510000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="510000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>176530</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>786130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100363" name="Text Box 1035" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32F48B20-D7B2-0BBB-6D0F-B46EC35541A8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11918950" y="0"/>
-          <a:ext cx="552450" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="510000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="510000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>24130</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>800100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100365" name="Text Box 1037" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DF39614-A7D3-8FD2-2372-84F6B83E75A1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12299950" y="19050"/>
-          <a:ext cx="762000" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="510000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="510000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
@@ -5998,7 +2913,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
@@ -6259,7 +3174,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
@@ -6520,154 +3435,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="To Do or Upgrade"/>
-      <sheetName val="Inputs Assump"/>
-      <sheetName val="C FTE Equiv"/>
-      <sheetName val="C Tot Hrs by Cat"/>
-      <sheetName val="C Variance"/>
-      <sheetName val="Time Summary"/>
-      <sheetName val="C Hrs by Category (3)"/>
-      <sheetName val="C Hrs by Category (2)"/>
-      <sheetName val="C Ratio to Baseline"/>
-      <sheetName val="Pie 2020"/>
-      <sheetName val="Calculations"/>
-      <sheetName val="Demographics_InCalc"/>
-      <sheetName val="Births"/>
-      <sheetName val="Mortality"/>
-      <sheetName val="FH.MC"/>
-      <sheetName val="FH.FP"/>
-      <sheetName val="FH.Im"/>
-      <sheetName val="FH.N"/>
-      <sheetName val="DPC"/>
-      <sheetName val="Other"/>
-      <sheetName val="DATA"/>
-      <sheetName val="Ssn Malaria"/>
-      <sheetName val="Ssn Nutr"/>
-      <sheetName val="Ssn Measles"/>
-      <sheetName val="Demographics_Total"/>
-      <sheetName val="Prevalences"/>
-      <sheetName val="Work time"/>
-      <sheetName val="Sheet21"/>
-      <sheetName val="Services summary"/>
-      <sheetName val="Services ref"/>
-      <sheetName val="Coverage impacts"/>
-      <sheetName val="Pop M"/>
-      <sheetName val="Pop F"/>
-      <sheetName val="TB Incidence"/>
-      <sheetName val="Malaria Incid"/>
-      <sheetName val="C Fertility"/>
-      <sheetName val="fertility"/>
-      <sheetName val="FP mod"/>
-      <sheetName val="unmet need"/>
-      <sheetName val="HIV Prev"/>
-      <sheetName val="HIV Incid"/>
-      <sheetName val="mort infant"/>
-      <sheetName val="mort 1-5"/>
-      <sheetName val="mort 5-9"/>
-      <sheetName val="mort 10-14"/>
-      <sheetName val="mort 15-19"/>
-      <sheetName val="mort 20-24"/>
-      <sheetName val="mort adult f"/>
-      <sheetName val="mort adult m"/>
-      <sheetName val="Staffing Ratios"/>
-      <sheetName val="fertility 15-19"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>Ratio max rural</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11">
-        <row r="4">
-          <cell r="V4">
-            <v>105.34416988791497</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24">
-        <row r="3">
-          <cell r="CZ3">
-            <v>115103531.71799999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39">
-        <row r="77">
-          <cell r="BC77">
-            <v>1.4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="40">
-        <row r="77">
-          <cell r="A77" t="str">
-            <v>Ethiopia</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-      <sheetData sheetId="49" refreshError="1"/>
-      <sheetData sheetId="50" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Rui Han (AgileOne)" id="{9909CE15-4B7B-4B12-B2AC-B027CA4AD901}" userId="S::rui.han@gatesfoundation.org::8e2486fc-4f63-445b-b2ee-a849708c4214" providerId="AD"/>
-  <person displayName="Brittany Hagedorn" id="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" userId="S::Brittany.Hagedorn@gatesfoundation.org::5a602c7b-e691-4c99-b6e7-afdfc0897536" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6967,40 +3736,40 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2022-11-12T18:35:53.10" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{328CAD55-03AD-4788-A8E4-651178ABBA8A}">
+  <threadedComment ref="A1" dT="2022-11-12T18:35:53.10" personId="{00000000-0000-0000-0000-000000000000}" id="{328CAD55-03AD-4788-A8E4-651178ABBA8A}">
     <text>Needs to be a unique value, but the text content does not matter. It is easier to work with the results if there are not spaces in the names.</text>
   </threadedComment>
-  <threadedComment ref="B1" dT="2022-11-12T18:33:54.25" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{48830E88-85FB-4EF7-929D-D5F68EF17275}">
+  <threadedComment ref="B1" dT="2022-11-12T18:33:54.25" personId="{00000000-0000-0000-0000-000000000000}" id="{48830E88-85FB-4EF7-929D-D5F68EF17275}">
     <text>Should be &lt;= 52</text>
   </threadedComment>
-  <threadedComment ref="C1" dT="2022-11-12T18:34:11.60" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{FEADEA4A-B72E-4A9D-858D-15AEFC2C5D84}">
+  <threadedComment ref="C1" dT="2022-11-12T18:34:11.60" personId="{00000000-0000-0000-0000-000000000000}" id="{FEADEA4A-B72E-4A9D-858D-15AEFC2C5D84}">
     <text>Should typically be &lt;= 40</text>
   </threadedComment>
-  <threadedComment ref="F1" dT="2022-11-12T18:34:44.31" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{4B821083-4883-4DD4-8E34-3EE4038314CD}">
+  <threadedComment ref="F1" dT="2022-11-12T18:34:44.31" personId="{00000000-0000-0000-0000-000000000000}" id="{4B821083-4883-4DD4-8E34-3EE4038314CD}">
     <text>Typically TRUE except for scenario analysis</text>
   </threadedComment>
-  <threadedComment ref="G1" dT="2022-11-12T18:34:48.58" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{1DF2B7BE-0D6C-4A5C-A888-20C5FF4E092F}">
+  <threadedComment ref="G1" dT="2022-11-12T18:34:48.58" personId="{00000000-0000-0000-0000-000000000000}" id="{1DF2B7BE-0D6C-4A5C-A888-20C5FF4E092F}">
     <text>Typically TRUE except for scenario analysis</text>
   </threadedComment>
-  <threadedComment ref="H1" dT="2022-11-12T18:34:52.99" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{2D782116-F72C-4F5F-8902-A8D67CBE7111}">
+  <threadedComment ref="H1" dT="2022-11-12T18:34:52.99" personId="{00000000-0000-0000-0000-000000000000}" id="{2D782116-F72C-4F5F-8902-A8D67CBE7111}">
     <text>Typically TRUE except for scenario analysis</text>
   </threadedComment>
-  <threadedComment ref="I1" dT="2022-11-12T18:34:57.44" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{937C2882-FF84-4DCB-B0AB-DCC54FB4D5E9}">
+  <threadedComment ref="I1" dT="2022-11-12T18:34:57.44" personId="{00000000-0000-0000-0000-000000000000}" id="{937C2882-FF84-4DCB-B0AB-DCC54FB4D5E9}">
     <text>Typically TRUE except for scenario analysis</text>
   </threadedComment>
-  <threadedComment ref="J1" dT="2022-11-12T18:36:24.37" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{407F3D1C-2F4A-4373-AB04-136CA0DC1F4D}">
+  <threadedComment ref="J1" dT="2022-11-12T18:36:24.37" personId="{00000000-0000-0000-0000-000000000000}" id="{407F3D1C-2F4A-4373-AB04-136CA0DC1F4D}">
     <text>The exact name (including capitalization) of a tab in this workbook that contains the task values information.</text>
   </threadedComment>
-  <threadedComment ref="K1" dT="2022-11-12T18:36:40.56" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{81CABEFC-7899-4C7A-B9AE-4E2D5F662376}">
+  <threadedComment ref="K1" dT="2022-11-12T18:36:40.56" personId="{00000000-0000-0000-0000-000000000000}" id="{81CABEFC-7899-4C7A-B9AE-4E2D5F662376}">
     <text>The exact name (including capitalization) of a tab in this workbook that contains the initial population demographics.</text>
   </threadedComment>
-  <threadedComment ref="L1" dT="2022-11-12T18:37:20.11" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{014F1C08-667B-46ED-851F-81B8588E32D0}">
+  <threadedComment ref="L1" dT="2022-11-12T18:37:20.11" personId="{00000000-0000-0000-0000-000000000000}" id="{014F1C08-667B-46ED-851F-81B8588E32D0}">
     <text>The exact name (including capitalization) of a tab in this workbook that contains the seasonality information. Can be one or multiple tabs, but only one is used per scenario run.</text>
   </threadedComment>
-  <threadedComment ref="M1" dT="2022-11-12T18:37:39.80" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{4CC0DF8F-AAA1-4EBE-B532-0D230C5FDFB7}">
+  <threadedComment ref="M1" dT="2022-11-12T18:37:39.80" personId="{00000000-0000-0000-0000-000000000000}" id="{4CC0DF8F-AAA1-4EBE-B532-0D230C5FDFB7}">
     <text>The exact name (including capitalization) of a tab in this workbook that contains the cadre task allocations. Can be one or multiple tabs, but only one is used per scenario run.</text>
   </threadedComment>
-  <threadedComment ref="N1" dT="2023-06-06T20:39:28.17" personId="{9909CE15-4B7B-4B12-B2AC-B027CA4AD901}" id="{E0287D98-688F-4109-B85D-5FB1C1026365}">
+  <threadedComment ref="N1" dT="2023-06-06T20:39:28.17" personId="{00000000-0000-0000-0000-000000000000}" id="{E0287D98-688F-4109-B85D-5FB1C1026365}">
     <text>The exact name (including capitalization) of a tab in this workbook that contains the task-specific coverage rates. Can be one or multiple tabs, but only one is used per scenario run.</text>
   </threadedComment>
 </ThreadedComments>
@@ -7017,14 +3786,14 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>290</v>
       </c>
@@ -7038,7 +3807,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>297</v>
       </c>
@@ -7052,7 +3821,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
         <v>238</v>
       </c>
@@ -7061,22 +3830,22 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.45">
       <c r="H11" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.45">
       <c r="H12" t="s">
         <v>125</v>
       </c>
@@ -7100,28 +3869,28 @@
       <selection pane="bottomLeft" activeCell="H14" sqref="H14:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.90625" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" customWidth="1"/>
-    <col min="3" max="3" width="35.81640625" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
-    <col min="8" max="8" width="16.90625" customWidth="1"/>
-    <col min="9" max="9" width="22.36328125" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" customWidth="1"/>
-    <col min="11" max="11" width="32.81640625" customWidth="1"/>
-    <col min="12" max="12" width="16.453125" customWidth="1"/>
-    <col min="13" max="13" width="19.1796875" customWidth="1"/>
-    <col min="14" max="14" width="18.7265625" customWidth="1"/>
+    <col min="1" max="1" width="27.9296875" customWidth="1"/>
+    <col min="2" max="2" width="19.73046875" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" customWidth="1"/>
+    <col min="4" max="4" width="12.796875" customWidth="1"/>
+    <col min="5" max="5" width="12.06640625" customWidth="1"/>
+    <col min="6" max="6" width="14.46484375" customWidth="1"/>
+    <col min="7" max="7" width="12.265625" customWidth="1"/>
+    <col min="8" max="8" width="16.9296875" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.46484375" customWidth="1"/>
+    <col min="11" max="11" width="32.796875" customWidth="1"/>
+    <col min="12" max="12" width="16.46484375" customWidth="1"/>
+    <col min="13" max="13" width="19.19921875" customWidth="1"/>
+    <col min="14" max="14" width="18.73046875" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="14.26953125" customWidth="1"/>
-    <col min="17" max="17" width="16.6328125" customWidth="1"/>
+    <col min="16" max="16" width="14.265625" customWidth="1"/>
+    <col min="17" max="17" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="87.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="87.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="35" t="s">
         <v>462</v>
       </c>
@@ -7174,7 +3943,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="42" t="s">
         <v>479</v>
       </c>
@@ -7215,7 +3984,7 @@
       </c>
       <c r="P2" s="49"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="50" t="s">
         <v>479</v>
       </c>
@@ -7256,7 +4025,7 @@
       </c>
       <c r="P3" s="34"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="50" t="s">
         <v>479</v>
       </c>
@@ -7298,7 +4067,7 @@
       </c>
       <c r="P4" s="34"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="50" t="s">
         <v>479</v>
       </c>
@@ -7340,7 +4109,7 @@
       </c>
       <c r="P5" s="34"/>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="51" t="s">
         <v>479</v>
       </c>
@@ -7382,7 +4151,7 @@
       </c>
       <c r="P6" s="58"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>500</v>
       </c>
@@ -7424,7 +4193,7 @@
       </c>
       <c r="P7" s="34"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>500</v>
       </c>
@@ -7466,7 +4235,7 @@
       </c>
       <c r="P8" s="34"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>500</v>
       </c>
@@ -7508,7 +4277,7 @@
       </c>
       <c r="P9" s="34"/>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>500</v>
       </c>
@@ -7550,7 +4319,7 @@
       </c>
       <c r="P10" s="34"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="42" t="s">
         <v>516</v>
       </c>
@@ -7596,7 +4365,7 @@
       </c>
       <c r="P11" s="49"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="50" t="s">
         <v>516</v>
       </c>
@@ -7642,7 +4411,7 @@
       </c>
       <c r="P12" s="34"/>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>516</v>
       </c>
@@ -7688,7 +4457,7 @@
       </c>
       <c r="P13" s="34"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="42" t="s">
         <v>532</v>
       </c>
@@ -7730,7 +4499,7 @@
       </c>
       <c r="P14" s="49"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="50" t="s">
         <v>532</v>
       </c>
@@ -7814,27 +4583,27 @@
       <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.08984375" customWidth="1"/>
-    <col min="2" max="2" width="22.36328125" customWidth="1"/>
-    <col min="3" max="3" width="44.453125" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" customWidth="1"/>
-    <col min="6" max="6" width="16.08984375" customWidth="1"/>
+    <col min="1" max="1" width="31.06640625" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="44.46484375" customWidth="1"/>
+    <col min="4" max="4" width="16.46484375" customWidth="1"/>
+    <col min="5" max="5" width="14.73046875" customWidth="1"/>
+    <col min="6" max="6" width="16.06640625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" customWidth="1"/>
-    <col min="9" max="9" width="25.08984375" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" customWidth="1"/>
-    <col min="11" max="11" width="35.81640625" customWidth="1"/>
-    <col min="12" max="12" width="18.08984375" customWidth="1"/>
-    <col min="13" max="13" width="19.1796875" customWidth="1"/>
-    <col min="14" max="14" width="18.7265625" customWidth="1"/>
-    <col min="15" max="15" width="15.08984375" customWidth="1"/>
-    <col min="16" max="16" width="20.26953125" customWidth="1"/>
+    <col min="8" max="8" width="17.46484375" customWidth="1"/>
+    <col min="9" max="9" width="25.06640625" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="35.796875" customWidth="1"/>
+    <col min="12" max="12" width="18.06640625" customWidth="1"/>
+    <col min="13" max="13" width="19.19921875" customWidth="1"/>
+    <col min="14" max="14" width="18.73046875" customWidth="1"/>
+    <col min="15" max="15" width="15.06640625" customWidth="1"/>
+    <col min="16" max="16" width="20.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="87.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="87.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="35" t="s">
         <v>257</v>
       </c>
@@ -7887,7 +4656,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="42" t="s">
         <v>258</v>
       </c>
@@ -7928,7 +4697,7 @@
       </c>
       <c r="P2" s="49"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="50" t="s">
         <v>258</v>
       </c>
@@ -7969,7 +4738,7 @@
       </c>
       <c r="P3" s="34"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="50" t="s">
         <v>258</v>
       </c>
@@ -8011,7 +4780,7 @@
       </c>
       <c r="P4" s="34"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="50" t="s">
         <v>258</v>
       </c>
@@ -8053,7 +4822,7 @@
       </c>
       <c r="P5" s="34"/>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="51" t="s">
         <v>258</v>
       </c>
@@ -8095,7 +4864,7 @@
       </c>
       <c r="P6" s="58"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>259</v>
       </c>
@@ -8137,7 +4906,7 @@
       </c>
       <c r="P7" s="34"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>259</v>
       </c>
@@ -8179,7 +4948,7 @@
       </c>
       <c r="P8" s="34"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>259</v>
       </c>
@@ -8221,7 +4990,7 @@
       </c>
       <c r="P9" s="34"/>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>259</v>
       </c>
@@ -8263,7 +5032,7 @@
       </c>
       <c r="P10" s="34"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="42" t="s">
         <v>260</v>
       </c>
@@ -8309,7 +5078,7 @@
       </c>
       <c r="P11" s="49"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="50" t="s">
         <v>260</v>
       </c>
@@ -8355,7 +5124,7 @@
       </c>
       <c r="P12" s="34"/>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>260</v>
       </c>
@@ -8401,7 +5170,7 @@
       </c>
       <c r="P13" s="34"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="42" t="s">
         <v>266</v>
       </c>
@@ -8443,7 +5212,7 @@
       </c>
       <c r="P14" s="49"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="50" t="s">
         <v>266</v>
       </c>
@@ -8485,7 +5254,7 @@
       </c>
       <c r="P15" s="34"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="50" t="s">
         <v>266</v>
       </c>
@@ -8527,7 +5296,7 @@
       </c>
       <c r="P16" s="34"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" s="50" t="s">
         <v>266</v>
       </c>
@@ -8569,7 +5338,7 @@
       </c>
       <c r="P17" s="34"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" s="50" t="s">
         <v>266</v>
       </c>
@@ -8611,7 +5380,7 @@
       </c>
       <c r="P18" s="34"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" s="50" t="s">
         <v>266</v>
       </c>
@@ -8653,7 +5422,7 @@
       </c>
       <c r="P19" s="34"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="50" t="s">
         <v>266</v>
       </c>
@@ -8695,7 +5464,7 @@
       </c>
       <c r="P20" s="34"/>
     </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="51" t="s">
         <v>266</v>
       </c>
@@ -8737,7 +5506,7 @@
       </c>
       <c r="P21" s="58"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" s="42" t="s">
         <v>262</v>
       </c>
@@ -8779,7 +5548,7 @@
       </c>
       <c r="P22" s="49"/>
     </row>
-    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="51" t="s">
         <v>262</v>
       </c>
@@ -8861,15 +5630,15 @@
       <selection activeCell="C16" sqref="C16:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" customWidth="1"/>
-    <col min="2" max="2" width="35.81640625" customWidth="1"/>
+    <col min="1" max="1" width="19.73046875" customWidth="1"/>
+    <col min="2" max="2" width="35.796875" customWidth="1"/>
     <col min="3" max="12" width="6" customWidth="1"/>
     <col min="13" max="23" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A1" s="60" t="s">
         <v>35</v>
       </c>
@@ -8940,7 +5709,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -9012,7 +5781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -9083,7 +5852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>243</v>
       </c>
@@ -9091,7 +5860,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>244</v>
       </c>
@@ -9099,7 +5868,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>245</v>
       </c>
@@ -9107,7 +5876,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>249</v>
       </c>
@@ -9115,7 +5884,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>250</v>
       </c>
@@ -9123,7 +5892,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>248</v>
       </c>
@@ -9131,7 +5900,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>246</v>
       </c>
@@ -9139,7 +5908,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>247</v>
       </c>
@@ -9147,7 +5916,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>263</v>
       </c>
@@ -9155,7 +5924,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>276</v>
       </c>
@@ -9163,7 +5932,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>251</v>
       </c>
@@ -9171,7 +5940,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>252</v>
       </c>
@@ -9179,7 +5948,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>269</v>
       </c>
@@ -9202,7 +5971,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>270</v>
       </c>
@@ -9210,7 +5979,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>271</v>
       </c>
@@ -9218,7 +5987,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>273</v>
       </c>
@@ -9226,7 +5995,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>274</v>
       </c>
@@ -9234,7 +6003,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>272</v>
       </c>
@@ -9267,15 +6036,15 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" customWidth="1"/>
-    <col min="2" max="2" width="35.81640625" customWidth="1"/>
+    <col min="1" max="1" width="19.73046875" customWidth="1"/>
+    <col min="2" max="2" width="35.796875" customWidth="1"/>
     <col min="3" max="12" width="6" customWidth="1"/>
     <col min="13" max="23" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A1" s="60" t="s">
         <v>35</v>
       </c>
@@ -9346,7 +6115,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -9354,7 +6123,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -9365,7 +6134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>243</v>
       </c>
@@ -9373,7 +6142,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>244</v>
       </c>
@@ -9381,7 +6150,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>245</v>
       </c>
@@ -9389,7 +6158,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>249</v>
       </c>
@@ -9397,7 +6166,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>250</v>
       </c>
@@ -9405,7 +6174,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>248</v>
       </c>
@@ -9413,7 +6182,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>246</v>
       </c>
@@ -9421,7 +6190,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>247</v>
       </c>
@@ -9429,7 +6198,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>263</v>
       </c>
@@ -9437,7 +6206,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>276</v>
       </c>
@@ -9445,7 +6214,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>251</v>
       </c>
@@ -9453,7 +6222,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>252</v>
       </c>
@@ -9461,7 +6230,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>269</v>
       </c>
@@ -9469,7 +6238,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>270</v>
       </c>
@@ -9477,7 +6246,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>271</v>
       </c>
@@ -9485,7 +6254,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>273</v>
       </c>
@@ -9493,7 +6262,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>274</v>
       </c>
@@ -9501,7 +6270,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>272</v>
       </c>
@@ -9535,16 +6304,16 @@
       <selection pane="bottomLeft" activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" customWidth="1"/>
-    <col min="2" max="2" width="39.08984375" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
-    <col min="5" max="16" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="20.265625" customWidth="1"/>
+    <col min="2" max="2" width="39.06640625" customWidth="1"/>
+    <col min="3" max="3" width="12.796875" customWidth="1"/>
+    <col min="4" max="4" width="12.265625" customWidth="1"/>
+    <col min="5" max="16" width="12.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="62" t="s">
         <v>288</v>
       </c>
@@ -9608,7 +6377,7 @@
         <v>StartYear2035</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="63" t="s">
         <v>35</v>
       </c>
@@ -9658,7 +6427,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="31" t="s">
         <v>50</v>
       </c>
@@ -9713,7 +6482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="31" t="s">
         <v>53</v>
       </c>
@@ -9768,7 +6537,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="31" t="s">
         <v>243</v>
       </c>
@@ -9823,7 +6592,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="31" t="s">
         <v>244</v>
       </c>
@@ -9878,7 +6647,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="31" t="s">
         <v>245</v>
       </c>
@@ -9933,7 +6702,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="31" t="s">
         <v>249</v>
       </c>
@@ -9988,7 +6757,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" s="31" t="s">
         <v>250</v>
       </c>
@@ -10043,7 +6812,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="31" t="s">
         <v>248</v>
       </c>
@@ -10098,7 +6867,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="31" t="s">
         <v>246</v>
       </c>
@@ -10153,7 +6922,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="31" t="s">
         <v>247</v>
       </c>
@@ -10208,7 +6977,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="31" t="s">
         <v>263</v>
       </c>
@@ -10263,7 +7032,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" s="31" t="s">
         <v>276</v>
       </c>
@@ -10318,7 +7087,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="31" t="s">
         <v>251</v>
       </c>
@@ -10373,7 +7142,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" s="31" t="s">
         <v>252</v>
       </c>
@@ -10428,7 +7197,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>269</v>
       </c>
@@ -10483,7 +7252,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>270</v>
       </c>
@@ -10538,7 +7307,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>271</v>
       </c>
@@ -10593,7 +7362,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>273</v>
       </c>
@@ -10648,7 +7417,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>274</v>
       </c>
@@ -10703,7 +7472,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>272</v>
       </c>
@@ -10758,7 +7527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>242</v>
       </c>
@@ -10813,7 +7582,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>131</v>
       </c>
@@ -10908,17 +7677,17 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.90625" customWidth="1"/>
-    <col min="2" max="2" width="6.26953125" customWidth="1"/>
-    <col min="3" max="3" width="22.90625" customWidth="1"/>
-    <col min="4" max="4" width="21.90625" customWidth="1"/>
-    <col min="5" max="5" width="8.6328125" customWidth="1"/>
-    <col min="6" max="6" width="7.7265625" customWidth="1"/>
+    <col min="1" max="1" width="15.9296875" customWidth="1"/>
+    <col min="2" max="2" width="6.265625" customWidth="1"/>
+    <col min="3" max="3" width="22.9296875" customWidth="1"/>
+    <col min="4" max="4" width="21.9296875" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" customWidth="1"/>
+    <col min="6" max="6" width="7.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="67" t="s">
         <v>278</v>
       </c>
@@ -10938,7 +7707,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>277</v>
       </c>
@@ -10958,7 +7727,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>277</v>
       </c>
@@ -10976,7 +7745,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>277</v>
       </c>
@@ -10994,7 +7763,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>237</v>
       </c>
@@ -11014,7 +7783,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>237</v>
       </c>
@@ -11032,7 +7801,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>237</v>
       </c>
@@ -11050,7 +7819,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>275</v>
       </c>
@@ -11070,7 +7839,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>275</v>
       </c>
@@ -11088,7 +7857,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>275</v>
       </c>
@@ -11106,7 +7875,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>320</v>
       </c>
@@ -11126,7 +7895,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>320</v>
       </c>
@@ -11144,7 +7913,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>320</v>
       </c>
@@ -11202,14 +7971,14 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="77.81640625" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
+    <col min="1" max="1" width="16.19921875" customWidth="1"/>
+    <col min="2" max="2" width="77.796875" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="68" t="s">
         <v>15</v>
       </c>
@@ -11220,7 +7989,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -11231,7 +8000,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -11242,7 +8011,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -11253,7 +8022,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -11264,7 +8033,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -11275,7 +8044,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -11286,7 +8055,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -11297,7 +8066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -11308,7 +8077,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -11333,17 +8102,17 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="15.796875" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="8" width="8.26953125" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" customWidth="1"/>
-    <col min="10" max="10" width="12.7265625" customWidth="1"/>
-    <col min="12" max="12" width="10.1796875" customWidth="1"/>
+    <col min="7" max="8" width="8.265625" customWidth="1"/>
+    <col min="9" max="9" width="12.53125" customWidth="1"/>
+    <col min="10" max="10" width="12.73046875" customWidth="1"/>
+    <col min="12" max="12" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B1" s="71" t="s">
         <v>127</v>
       </c>
@@ -11369,7 +8138,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
         <v>152</v>
       </c>
@@ -11395,7 +8164,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
         <v>153</v>
       </c>
@@ -11421,7 +8190,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
         <v>154</v>
       </c>
@@ -11447,7 +8216,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>67</v>
       </c>
@@ -11473,7 +8242,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>64</v>
       </c>
@@ -11496,7 +8265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B7" s="3"/>
       <c r="D7" s="3" t="s">
         <v>64</v>
@@ -11517,7 +8286,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B8" s="3"/>
       <c r="D8" s="3" t="s">
         <v>65</v>
@@ -11538,7 +8307,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" s="3"/>
       <c r="D9" s="3" t="s">
         <v>4</v>
@@ -11559,7 +8328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D10" s="3" t="s">
         <v>70</v>
       </c>
@@ -11579,7 +8348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D11" s="3" t="s">
         <v>71</v>
       </c>
@@ -11599,7 +8368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D12" s="3" t="s">
         <v>73</v>
       </c>
@@ -11619,7 +8388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D13" s="3" t="s">
         <v>86</v>
       </c>
@@ -11639,7 +8408,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D14" s="3" t="s">
         <v>75</v>
       </c>
@@ -11659,7 +8428,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D15" s="3" t="s">
         <v>1</v>
       </c>
@@ -11679,7 +8448,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
       <c r="F16" s="3" t="s">
         <v>208</v>
       </c>
@@ -11696,7 +8465,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F17" s="3" t="s">
         <v>209</v>
       </c>
@@ -11713,7 +8482,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F18" s="3" t="s">
         <v>210</v>
       </c>
@@ -11730,7 +8499,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F19" s="3" t="s">
         <v>214</v>
       </c>
@@ -11747,7 +8516,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F20" s="3" t="s">
         <v>215</v>
       </c>
@@ -11764,7 +8533,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F21" s="3" t="s">
         <v>142</v>
       </c>
@@ -11781,7 +8550,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F22" s="3" t="s">
         <v>76</v>
       </c>
@@ -11798,7 +8567,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F23" s="3" t="s">
         <v>74</v>
       </c>
@@ -11815,7 +8584,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F24" s="3" t="s">
         <v>72</v>
       </c>
@@ -11832,7 +8601,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F25" s="3" t="s">
         <v>66</v>
       </c>
@@ -11846,7 +8615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F26" s="3" t="s">
         <v>155</v>
       </c>
@@ -11860,7 +8629,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F27" s="3" t="s">
         <v>216</v>
       </c>
@@ -11874,7 +8643,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F28" s="3" t="s">
         <v>211</v>
       </c>
@@ -11888,7 +8657,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F29" s="3" t="s">
         <v>207</v>
       </c>
@@ -11902,7 +8671,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F30" s="3" t="s">
         <v>147</v>
       </c>
@@ -11916,7 +8685,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F31" s="3" t="s">
         <v>77</v>
       </c>
@@ -11933,7 +8702,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F32" s="3" t="s">
         <v>145</v>
       </c>
@@ -11950,7 +8719,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F33" s="3" t="s">
         <v>217</v>
       </c>
@@ -11967,7 +8736,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F34" s="3" t="s">
         <v>218</v>
       </c>
@@ -11984,7 +8753,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F35" s="3" t="s">
         <v>219</v>
       </c>
@@ -12001,7 +8770,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F36" s="3" t="s">
         <v>220</v>
       </c>
@@ -12018,7 +8787,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F37" s="3" t="s">
         <v>221</v>
       </c>
@@ -12035,7 +8804,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F38" s="3" t="s">
         <v>222</v>
       </c>
@@ -12052,7 +8821,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F39" s="3" t="s">
         <v>223</v>
       </c>
@@ -12069,7 +8838,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F40" s="3" t="s">
         <v>224</v>
       </c>
@@ -12086,7 +8855,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F41" s="3" t="s">
         <v>225</v>
       </c>
@@ -12103,7 +8872,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F42" s="3" t="s">
         <v>226</v>
       </c>
@@ -12120,7 +8889,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F43" s="3" t="s">
         <v>146</v>
       </c>
@@ -12137,7 +8906,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F44" s="3" t="s">
         <v>69</v>
       </c>
@@ -12148,7 +8917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F45" s="3" t="s">
         <v>64</v>
       </c>
@@ -12176,22 +8945,22 @@
       <selection activeCell="A3" sqref="A3:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" customWidth="1"/>
-    <col min="3" max="4" width="8.26953125" customWidth="1"/>
-    <col min="5" max="5" width="8.1796875" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" customWidth="1"/>
-    <col min="7" max="7" width="9.6328125" customWidth="1"/>
-    <col min="8" max="9" width="9.81640625" customWidth="1"/>
-    <col min="10" max="10" width="19.453125" customWidth="1"/>
-    <col min="11" max="11" width="10.26953125" customWidth="1"/>
-    <col min="12" max="12" width="15.90625" customWidth="1"/>
-    <col min="13" max="13" width="20.54296875" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" customWidth="1"/>
+    <col min="3" max="4" width="8.265625" customWidth="1"/>
+    <col min="5" max="5" width="8.19921875" customWidth="1"/>
+    <col min="6" max="6" width="8.9296875" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" customWidth="1"/>
+    <col min="8" max="9" width="9.796875" customWidth="1"/>
+    <col min="10" max="10" width="19.46484375" customWidth="1"/>
+    <col min="11" max="11" width="10.265625" customWidth="1"/>
+    <col min="12" max="12" width="15.9296875" customWidth="1"/>
+    <col min="13" max="13" width="20.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="112" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="112.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>321</v>
       </c>
@@ -12235,7 +9004,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>335</v>
       </c>
@@ -12279,7 +9048,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -12306,8 +9075,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -12334,18 +9102,18 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.1796875" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" customWidth="1"/>
-    <col min="4" max="4" width="4.1796875" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="30.19921875" customWidth="1"/>
+    <col min="2" max="2" width="20.796875" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" customWidth="1"/>
+    <col min="4" max="4" width="4.19921875" customWidth="1"/>
+    <col min="5" max="5" width="9.53125" customWidth="1"/>
+    <col min="6" max="6" width="8.73046875" customWidth="1"/>
+    <col min="8" max="8" width="11.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -12371,7 +9139,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>160</v>
       </c>
@@ -12397,7 +9165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>162</v>
       </c>
@@ -12423,7 +9191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -12449,7 +9217,7 @@
         <v>0.97723897298610929</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -12475,7 +9243,7 @@
         <v>0.99685353311678415</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -12501,7 +9269,7 @@
         <v>0.95923160261985096</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -12527,7 +9295,7 @@
         <v>0.96266330219938556</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -12553,7 +9321,7 @@
         <v>0.95745816617065971</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -12579,7 +9347,7 @@
         <v>0.98213902523412255</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -12605,7 +9373,7 @@
         <v>1.0116890042587912</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>170</v>
       </c>
@@ -12631,7 +9399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>175</v>
       </c>
@@ -12657,7 +9425,7 @@
         <v>0.97979135601203193</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>176</v>
       </c>
@@ -12683,7 +9451,7 @@
         <v>0.81932127060064586</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>177</v>
       </c>
@@ -12709,7 +9477,7 @@
         <v>0.95161290322580649</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>178</v>
       </c>
@@ -12735,7 +9503,7 @@
         <v>0.96150047483380818</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>179</v>
       </c>
@@ -12761,7 +9529,7 @@
         <v>0.96508794519599173</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>180</v>
       </c>
@@ -12787,7 +9555,7 @@
         <v>0.9885057471264368</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -12813,7 +9581,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>122</v>
       </c>
@@ -12839,7 +9607,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -12865,7 +9633,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>120</v>
       </c>
@@ -12891,7 +9659,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>181</v>
       </c>
@@ -12917,7 +9685,7 @@
         <v>0.97979135601203193</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>182</v>
       </c>
@@ -12943,7 +9711,7 @@
         <v>0.81932127060064586</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>183</v>
       </c>
@@ -12969,7 +9737,7 @@
         <v>0.95161290322580649</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>184</v>
       </c>
@@ -12995,7 +9763,7 @@
         <v>0.96150047483380818</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>185</v>
       </c>
@@ -13021,7 +9789,7 @@
         <v>0.96508794519599173</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>186</v>
       </c>
@@ -13047,7 +9815,7 @@
         <v>0.9885057471264368</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -13073,7 +9841,7 @@
         <v>0.98481071022469158</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>124</v>
       </c>
@@ -13099,7 +9867,7 @@
         <v>0.98481071022469158</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -13125,7 +9893,7 @@
         <v>0.98481071022469158</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>118</v>
       </c>
@@ -13196,13 +9964,13 @@
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.90625" customWidth="1"/>
-    <col min="2" max="3" width="5.6328125" customWidth="1"/>
+    <col min="1" max="1" width="18.9296875" customWidth="1"/>
+    <col min="2" max="3" width="5.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="29.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>293</v>
       </c>
@@ -13213,7 +9981,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -13224,7 +9992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>161</v>
       </c>
@@ -13235,7 +10003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
         <v>296</v>
       </c>
@@ -13261,16 +10029,16 @@
       <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.1796875" customWidth="1"/>
-    <col min="2" max="3" width="7.81640625" customWidth="1"/>
-    <col min="4" max="4" width="8.26953125" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.19921875" customWidth="1"/>
+    <col min="2" max="3" width="7.796875" customWidth="1"/>
+    <col min="4" max="4" width="8.265625" customWidth="1"/>
+    <col min="6" max="6" width="13.53125" customWidth="1"/>
+    <col min="7" max="7" width="11.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>341</v>
       </c>
@@ -13284,7 +10052,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="19" t="s">
         <v>345</v>
       </c>
@@ -13298,7 +10066,7 @@
         <v>1661785</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="19" t="s">
         <v>346</v>
       </c>
@@ -13313,7 +10081,7 @@
       </c>
       <c r="F3" s="18"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="19" t="s">
         <v>347</v>
       </c>
@@ -13328,7 +10096,7 @@
       </c>
       <c r="F4" s="18"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="19" t="s">
         <v>348</v>
       </c>
@@ -13343,7 +10111,7 @@
       </c>
       <c r="F5" s="18"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="19" t="s">
         <v>349</v>
       </c>
@@ -13357,7 +10125,7 @@
         <v>1437833</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="19" t="s">
         <v>350</v>
       </c>
@@ -13371,7 +10139,7 @@
         <v>1396396</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="19" t="s">
         <v>351</v>
       </c>
@@ -13385,7 +10153,7 @@
         <v>1356168</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="19" t="s">
         <v>352</v>
       </c>
@@ -13399,7 +10167,7 @@
         <v>1314330</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="19" t="s">
         <v>353</v>
       </c>
@@ -13413,7 +10181,7 @@
         <v>1268932</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="19" t="s">
         <v>354</v>
       </c>
@@ -13427,7 +10195,7 @@
         <v>1221493</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="19" t="s">
         <v>355</v>
       </c>
@@ -13441,7 +10209,7 @@
         <v>1174391</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="19" t="s">
         <v>356</v>
       </c>
@@ -13456,7 +10224,7 @@
       </c>
       <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="19" t="s">
         <v>357</v>
       </c>
@@ -13470,7 +10238,7 @@
         <v>1090736</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="19" t="s">
         <v>358</v>
       </c>
@@ -13484,7 +10252,7 @@
         <v>1058073</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="19" t="s">
         <v>359</v>
       </c>
@@ -13498,7 +10266,7 @@
         <v>1030039</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="19" t="s">
         <v>360</v>
       </c>
@@ -13512,7 +10280,7 @@
         <v>1003777</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="19" t="s">
         <v>361</v>
       </c>
@@ -13526,7 +10294,7 @@
         <v>976431</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="19" t="s">
         <v>362</v>
       </c>
@@ -13540,7 +10308,7 @@
         <v>945141</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="19" t="s">
         <v>363</v>
       </c>
@@ -13554,7 +10322,7 @@
         <v>908146</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="19" t="s">
         <v>364</v>
       </c>
@@ -13568,7 +10336,7 @@
         <v>868048</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="19" t="s">
         <v>365</v>
       </c>
@@ -13582,7 +10350,7 @@
         <v>828548</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="19" t="s">
         <v>366</v>
       </c>
@@ -13596,7 +10364,7 @@
         <v>793343</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="19" t="s">
         <v>367</v>
       </c>
@@ -13610,7 +10378,7 @@
         <v>766132</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="19" t="s">
         <v>368</v>
       </c>
@@ -13624,7 +10392,7 @@
         <v>749164</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="19" t="s">
         <v>369</v>
       </c>
@@ -13638,7 +10406,7 @@
         <v>738892</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="19" t="s">
         <v>370</v>
       </c>
@@ -13652,7 +10420,7 @@
         <v>730323</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="19" t="s">
         <v>371</v>
       </c>
@@ -13666,7 +10434,7 @@
         <v>718461</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="19" t="s">
         <v>372</v>
       </c>
@@ -13680,7 +10448,7 @@
         <v>698313</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="19" t="s">
         <v>373</v>
       </c>
@@ -13694,7 +10462,7 @@
         <v>666576</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="19" t="s">
         <v>374</v>
       </c>
@@ -13708,7 +10476,7 @@
         <v>626723</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="19" t="s">
         <v>375</v>
       </c>
@@ -13722,7 +10490,7 @@
         <v>583919</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="19" t="s">
         <v>376</v>
       </c>
@@ -13736,7 +10504,7 @@
         <v>543330</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="19" t="s">
         <v>377</v>
       </c>
@@ -13750,7 +10518,7 @@
         <v>510120</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="19" t="s">
         <v>378</v>
       </c>
@@ -13764,7 +10532,7 @@
         <v>487949</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="19" t="s">
         <v>379</v>
       </c>
@@ -13778,7 +10546,7 @@
         <v>474448</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="19" t="s">
         <v>380</v>
       </c>
@@ -13792,7 +10560,7 @@
         <v>465743</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="19" t="s">
         <v>381</v>
       </c>
@@ -13806,7 +10574,7 @@
         <v>457958</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="19" t="s">
         <v>382</v>
       </c>
@@ -13820,7 +10588,7 @@
         <v>447221</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="19" t="s">
         <v>383</v>
       </c>
@@ -13834,7 +10602,7 @@
         <v>430663</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="19" t="s">
         <v>384</v>
       </c>
@@ -13848,7 +10616,7 @@
         <v>409458</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="19" t="s">
         <v>385</v>
       </c>
@@ -13862,7 +10630,7 @@
         <v>385788</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="19" t="s">
         <v>386</v>
       </c>
@@ -13876,7 +10644,7 @@
         <v>361831</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="19" t="s">
         <v>387</v>
       </c>
@@ -13890,7 +10658,7 @@
         <v>339770</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="19" t="s">
         <v>388</v>
       </c>
@@ -13904,7 +10672,7 @@
         <v>321306</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="19" t="s">
         <v>389</v>
       </c>
@@ -13918,7 +10686,7 @@
         <v>306218</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="19" t="s">
         <v>390</v>
       </c>
@@ -13932,7 +10700,7 @@
         <v>293804</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="19" t="s">
         <v>391</v>
       </c>
@@ -13946,7 +10714,7 @@
         <v>283366</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="19" t="s">
         <v>392</v>
       </c>
@@ -13960,7 +10728,7 @@
         <v>274199</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="19" t="s">
         <v>393</v>
       </c>
@@ -13974,7 +10742,7 @@
         <v>265669</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="19" t="s">
         <v>394</v>
       </c>
@@ -13988,7 +10756,7 @@
         <v>257397</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="19" t="s">
         <v>395</v>
       </c>
@@ -14002,7 +10770,7 @@
         <v>249067</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="19" t="s">
         <v>396</v>
       </c>
@@ -14016,7 +10784,7 @@
         <v>240364</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="19" t="s">
         <v>397</v>
       </c>
@@ -14030,7 +10798,7 @@
         <v>230975</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="19" t="s">
         <v>398</v>
       </c>
@@ -14044,7 +10812,7 @@
         <v>220733</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="19" t="s">
         <v>399</v>
       </c>
@@ -14058,7 +10826,7 @@
         <v>210071</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="19" t="s">
         <v>400</v>
       </c>
@@ -14072,7 +10840,7 @@
         <v>199572</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="19" t="s">
         <v>401</v>
       </c>
@@ -14086,7 +10854,7 @@
         <v>189817</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="19" t="s">
         <v>402</v>
       </c>
@@ -14100,7 +10868,7 @@
         <v>181389</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="19" t="s">
         <v>403</v>
       </c>
@@ -14114,7 +10882,7 @@
         <v>174672</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="19" t="s">
         <v>404</v>
       </c>
@@ -14128,7 +10896,7 @@
         <v>169266</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="19" t="s">
         <v>405</v>
       </c>
@@ -14142,7 +10910,7 @@
         <v>164570</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="19" t="s">
         <v>406</v>
       </c>
@@ -14156,7 +10924,7 @@
         <v>159984</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="19" t="s">
         <v>407</v>
       </c>
@@ -14170,7 +10938,7 @@
         <v>154911</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="19" t="s">
         <v>408</v>
       </c>
@@ -14184,7 +10952,7 @@
         <v>148886</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="19" t="s">
         <v>409</v>
       </c>
@@ -14198,7 +10966,7 @@
         <v>141980</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="19" t="s">
         <v>410</v>
       </c>
@@ -14212,7 +10980,7 @@
         <v>134404</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="19" t="s">
         <v>411</v>
       </c>
@@ -14226,7 +10994,7 @@
         <v>126364</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="19" t="s">
         <v>412</v>
       </c>
@@ -14240,7 +11008,7 @@
         <v>118067</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="19" t="s">
         <v>413</v>
       </c>
@@ -14254,7 +11022,7 @@
         <v>109699</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="19" t="s">
         <v>414</v>
       </c>
@@ -14268,7 +11036,7 @@
         <v>101346</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="19" t="s">
         <v>415</v>
       </c>
@@ -14282,7 +11050,7 @@
         <v>93075</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="19" t="s">
         <v>416</v>
       </c>
@@ -14296,7 +11064,7 @@
         <v>84948</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="19" t="s">
         <v>417</v>
       </c>
@@ -14310,7 +11078,7 @@
         <v>77028</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="19" t="s">
         <v>418</v>
       </c>
@@ -14324,7 +11092,7 @@
         <v>69384</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="19" t="s">
         <v>419</v>
       </c>
@@ -14338,7 +11106,7 @@
         <v>62094</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="19" t="s">
         <v>420</v>
       </c>
@@ -14352,7 +11120,7 @@
         <v>55239</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="19" t="s">
         <v>421</v>
       </c>
@@ -14366,7 +11134,7 @@
         <v>48900</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="19" t="s">
         <v>422</v>
       </c>
@@ -14380,7 +11148,7 @@
         <v>43160</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="19" t="s">
         <v>423</v>
       </c>
@@ -14394,7 +11162,7 @@
         <v>38068</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="19" t="s">
         <v>424</v>
       </c>
@@ -14408,7 +11176,7 @@
         <v>33558</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="19" t="s">
         <v>425</v>
       </c>
@@ -14422,7 +11190,7 @@
         <v>29529</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="19" t="s">
         <v>426</v>
       </c>
@@ -14436,7 +11204,7 @@
         <v>25885</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="19" t="s">
         <v>427</v>
       </c>
@@ -14450,7 +11218,7 @@
         <v>22526</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="19" t="s">
         <v>428</v>
       </c>
@@ -14464,7 +11232,7 @@
         <v>19374</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="19" t="s">
         <v>429</v>
       </c>
@@ -14478,7 +11246,7 @@
         <v>16426</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="19" t="s">
         <v>430</v>
       </c>
@@ -14492,7 +11260,7 @@
         <v>13701</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="19" t="s">
         <v>431</v>
       </c>
@@ -14506,7 +11274,7 @@
         <v>11215</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="19" t="s">
         <v>432</v>
       </c>
@@ -14520,7 +11288,7 @@
         <v>8986</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="19" t="s">
         <v>433</v>
       </c>
@@ -14534,7 +11302,7 @@
         <v>7028</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="19" t="s">
         <v>434</v>
       </c>
@@ -14548,7 +11316,7 @@
         <v>5338</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="19" t="s">
         <v>435</v>
       </c>
@@ -14562,7 +11330,7 @@
         <v>3914</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="19" t="s">
         <v>436</v>
       </c>
@@ -14576,7 +11344,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="19" t="s">
         <v>437</v>
       </c>
@@ -14590,7 +11358,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="19" t="s">
         <v>438</v>
       </c>
@@ -14604,7 +11372,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="19" t="s">
         <v>439</v>
       </c>
@@ -14618,7 +11386,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="19" t="s">
         <v>440</v>
       </c>
@@ -14632,7 +11400,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="19" t="s">
         <v>441</v>
       </c>
@@ -14646,7 +11414,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="19" t="s">
         <v>442</v>
       </c>
@@ -14660,7 +11428,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="19" t="s">
         <v>443</v>
       </c>
@@ -14674,7 +11442,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="19" t="s">
         <v>444</v>
       </c>
@@ -14688,7 +11456,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="19" t="s">
         <v>445</v>
       </c>
@@ -14725,14 +11493,14 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="4" width="9.26953125" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" customWidth="1"/>
+    <col min="1" max="4" width="9.265625" customWidth="1"/>
+    <col min="6" max="6" width="13.53125" customWidth="1"/>
+    <col min="7" max="7" width="11.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>30</v>
       </c>
@@ -14746,7 +11514,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="23" t="s">
         <v>34</v>
       </c>
@@ -14760,7 +11528,7 @@
         <v>48809</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="23">
         <v>1</v>
       </c>
@@ -14775,7 +11543,7 @@
       </c>
       <c r="F3" s="18"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="23">
         <v>2</v>
       </c>
@@ -14790,7 +11558,7 @@
       </c>
       <c r="F4" s="18"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="23">
         <v>3</v>
       </c>
@@ -14805,7 +11573,7 @@
       </c>
       <c r="F5" s="18"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="23">
         <v>4</v>
       </c>
@@ -14819,7 +11587,7 @@
         <v>47623</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="23">
         <v>5</v>
       </c>
@@ -14833,7 +11601,7 @@
         <v>50657</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="23">
         <v>6</v>
       </c>
@@ -14847,7 +11615,7 @@
         <v>54150</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="23">
         <v>7</v>
       </c>
@@ -14861,7 +11629,7 @@
         <v>57562</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="23">
         <v>8</v>
       </c>
@@ -14875,7 +11643,7 @@
         <v>60434</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="23">
         <v>9</v>
       </c>
@@ -14889,7 +11657,7 @@
         <v>62648</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="23">
         <v>10</v>
       </c>
@@ -14903,7 +11671,7 @@
         <v>64171</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="23">
         <v>11</v>
       </c>
@@ -14918,7 +11686,7 @@
       </c>
       <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="23">
         <v>12</v>
       </c>
@@ -14932,7 +11700,7 @@
         <v>65009</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="23">
         <v>13</v>
       </c>
@@ -14946,7 +11714,7 @@
         <v>64277</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="23">
         <v>14</v>
       </c>
@@ -14960,7 +11728,7 @@
         <v>62842</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="23">
         <v>15</v>
       </c>
@@ -14974,7 +11742,7 @@
         <v>60798</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="23">
         <v>16</v>
       </c>
@@ -14988,7 +11756,7 @@
         <v>58233</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="23">
         <v>17</v>
       </c>
@@ -15002,7 +11770,7 @@
         <v>55238</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="23">
         <v>18</v>
       </c>
@@ -15016,7 +11784,7 @@
         <v>51920</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="23">
         <v>19</v>
       </c>
@@ -15030,7 +11798,7 @@
         <v>48445</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="23">
         <v>20</v>
       </c>
@@ -15044,7 +11812,7 @@
         <v>44996</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="23">
         <v>21</v>
       </c>
@@ -15058,7 +11826,7 @@
         <v>41753</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="23">
         <v>22</v>
       </c>
@@ -15072,7 +11840,7 @@
         <v>38902</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="23">
         <v>23</v>
       </c>
@@ -15086,7 +11854,7 @@
         <v>36572</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="23">
         <v>24</v>
       </c>
@@ -15100,7 +11868,7 @@
         <v>34692</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="23">
         <v>25</v>
       </c>
@@ -15114,7 +11882,7 @@
         <v>33142</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="23">
         <v>26</v>
       </c>
@@ -15128,7 +11896,7 @@
         <v>31801</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="23">
         <v>27</v>
       </c>
@@ -15142,7 +11910,7 @@
         <v>30547</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="23">
         <v>28</v>
       </c>
@@ -15156,7 +11924,7 @@
         <v>29292</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="23">
         <v>29</v>
       </c>
@@ -15170,7 +11938,7 @@
         <v>28084</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="23">
         <v>30</v>
       </c>
@@ -15184,7 +11952,7 @@
         <v>27001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="23">
         <v>31</v>
       </c>
@@ -15198,7 +11966,7 @@
         <v>26127</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="23">
         <v>32</v>
       </c>
@@ -15212,7 +11980,7 @@
         <v>25540</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="23">
         <v>33</v>
       </c>
@@ -15226,7 +11994,7 @@
         <v>25287</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="23">
         <v>34</v>
       </c>
@@ -15240,7 +12008,7 @@
         <v>25280</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="23">
         <v>35</v>
       </c>
@@ -15254,7 +12022,7 @@
         <v>25400</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="23">
         <v>36</v>
       </c>
@@ -15268,7 +12036,7 @@
         <v>25525</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="23">
         <v>37</v>
       </c>
@@ -15282,7 +12050,7 @@
         <v>25534</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="23">
         <v>38</v>
       </c>
@@ -15296,7 +12064,7 @@
         <v>25328</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="23">
         <v>39</v>
       </c>
@@ -15310,7 +12078,7 @@
         <v>24886</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="23">
         <v>40</v>
       </c>
@@ -15324,7 +12092,7 @@
         <v>24209</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="23">
         <v>41</v>
       </c>
@@ -15338,7 +12106,7 @@
         <v>23299</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="23">
         <v>42</v>
       </c>
@@ -15352,7 +12120,7 @@
         <v>22156</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="23">
         <v>43</v>
       </c>
@@ -15366,7 +12134,7 @@
         <v>20797</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="23">
         <v>44</v>
       </c>
@@ -15380,7 +12148,7 @@
         <v>19303</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="23">
         <v>45</v>
       </c>
@@ -15394,7 +12162,7 @@
         <v>17771</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="23">
         <v>46</v>
       </c>
@@ -15408,7 +12176,7 @@
         <v>16299</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="23">
         <v>47</v>
       </c>
@@ -15422,7 +12190,7 @@
         <v>14982</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="23">
         <v>48</v>
       </c>
@@ -15436,7 +12204,7 @@
         <v>13891</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="23">
         <v>49</v>
       </c>
@@ -15450,7 +12218,7 @@
         <v>12985</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="23">
         <v>50</v>
       </c>
@@ -15464,7 +12232,7 @@
         <v>12192</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="23">
         <v>51</v>
       </c>
@@ -15478,7 +12246,7 @@
         <v>11444</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="23">
         <v>52</v>
       </c>
@@ -15492,7 +12260,7 @@
         <v>10673</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="23">
         <v>53</v>
       </c>
@@ -15506,7 +12274,7 @@
         <v>9830</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="23">
         <v>54</v>
       </c>
@@ -15520,7 +12288,7 @@
         <v>8951</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="23">
         <v>55</v>
       </c>
@@ -15534,7 +12302,7 @@
         <v>8095</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="23">
         <v>56</v>
       </c>
@@ -15548,7 +12316,7 @@
         <v>7320</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="23">
         <v>57</v>
       </c>
@@ -15562,7 +12330,7 @@
         <v>6684</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="23">
         <v>58</v>
       </c>
@@ -15576,7 +12344,7 @@
         <v>6224</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="23">
         <v>59</v>
       </c>
@@ -15590,7 +12358,7 @@
         <v>5892</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="23">
         <v>60</v>
       </c>
@@ -15604,7 +12372,7 @@
         <v>5622</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="23">
         <v>61</v>
       </c>
@@ -15618,7 +12386,7 @@
         <v>5345</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="23">
         <v>62</v>
       </c>
@@ -15632,7 +12400,7 @@
         <v>4994</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="23">
         <v>63</v>
       </c>
@@ -15646,7 +12414,7 @@
         <v>4521</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="23">
         <v>64</v>
       </c>
@@ -15660,7 +12428,7 @@
         <v>3965</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="23">
         <v>65</v>
       </c>
@@ -15674,7 +12442,7 @@
         <v>3386</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="23">
         <v>66</v>
       </c>
@@ -15688,7 +12456,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="23">
         <v>67</v>
       </c>
@@ -15702,7 +12470,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="23">
         <v>68</v>
       </c>
@@ -15716,7 +12484,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="23">
         <v>69</v>
       </c>
@@ -15730,7 +12498,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="23">
         <v>70</v>
       </c>
@@ -15744,7 +12512,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="23">
         <v>71</v>
       </c>
@@ -15758,7 +12526,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="23">
         <v>72</v>
       </c>
@@ -15772,7 +12540,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="23">
         <v>73</v>
       </c>
@@ -15786,7 +12554,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="23">
         <v>74</v>
       </c>
@@ -15800,7 +12568,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="23">
         <v>75</v>
       </c>
@@ -15814,7 +12582,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="23">
         <v>76</v>
       </c>
@@ -15828,7 +12596,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="23">
         <v>77</v>
       </c>
@@ -15842,7 +12610,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="23">
         <v>78</v>
       </c>
@@ -15856,7 +12624,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="23">
         <v>79</v>
       </c>
@@ -15870,7 +12638,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="23">
         <v>80</v>
       </c>
@@ -15884,7 +12652,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="23">
         <v>81</v>
       </c>
@@ -15898,7 +12666,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="23">
         <v>82</v>
       </c>
@@ -15912,7 +12680,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="23">
         <v>83</v>
       </c>
@@ -15926,7 +12694,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="23">
         <v>84</v>
       </c>
@@ -15940,7 +12708,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="23">
         <v>85</v>
       </c>
@@ -15954,7 +12722,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="23">
         <v>86</v>
       </c>
@@ -15968,7 +12736,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="23">
         <v>87</v>
       </c>
@@ -15982,7 +12750,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="23">
         <v>88</v>
       </c>
@@ -15996,7 +12764,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="23">
         <v>89</v>
       </c>
@@ -16010,7 +12778,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="23">
         <v>90</v>
       </c>
@@ -16024,7 +12792,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="23">
         <v>91</v>
       </c>
@@ -16038,7 +12806,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="23">
         <v>92</v>
       </c>
@@ -16052,7 +12820,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="23">
         <v>93</v>
       </c>
@@ -16066,7 +12834,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="23">
         <v>94</v>
       </c>
@@ -16080,7 +12848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="23">
         <v>95</v>
       </c>
@@ -16094,7 +12862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="23">
         <v>96</v>
       </c>
@@ -16108,7 +12876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="23">
         <v>97</v>
       </c>
@@ -16122,7 +12890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="23">
         <v>98</v>
       </c>
@@ -16136,7 +12904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="23">
         <v>99</v>
       </c>
@@ -16150,7 +12918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="23">
         <v>100</v>
       </c>
@@ -16187,12 +12955,12 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.54296875" customWidth="1"/>
+    <col min="1" max="1" width="27.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>101</v>
       </c>
@@ -16203,7 +12971,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="26" t="s">
         <v>103</v>
       </c>
@@ -16212,7 +12980,7 @@
       </c>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="26" t="s">
         <v>104</v>
       </c>
@@ -16221,7 +12989,7 @@
       </c>
       <c r="C3" s="21"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="26" t="s">
         <v>105</v>
       </c>
@@ -16230,7 +12998,7 @@
       </c>
       <c r="C4" s="21"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="26" t="s">
         <v>106</v>
       </c>
@@ -16241,7 +13009,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="26" t="s">
         <v>107</v>
       </c>
@@ -16252,7 +13020,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="26" t="s">
         <v>108</v>
       </c>
@@ -16263,7 +13031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="26" t="s">
         <v>109</v>
       </c>
@@ -16272,7 +13040,7 @@
       </c>
       <c r="C8" s="21"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="26" t="s">
         <v>110</v>
       </c>
@@ -16281,7 +13049,7 @@
       </c>
       <c r="C9" s="21"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="26" t="s">
         <v>111</v>
       </c>
@@ -16314,14 +13082,14 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" customWidth="1"/>
-    <col min="2" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="5" width="20.08984375" customWidth="1"/>
+    <col min="1" max="1" width="7.796875" customWidth="1"/>
+    <col min="2" max="4" width="12.796875" customWidth="1"/>
+    <col min="5" max="5" width="20.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>446</v>
       </c>
@@ -16335,7 +13103,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="26" t="s">
         <v>450</v>
       </c>
@@ -16349,7 +13117,7 @@
         <v>6.6936482067843195E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="26" t="s">
         <v>451</v>
       </c>
@@ -16363,7 +13131,7 @@
         <v>6.4084654318812995E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="26" t="s">
         <v>452</v>
       </c>
@@ -16377,7 +13145,7 @@
         <v>6.0600247743600302E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="26" t="s">
         <v>453</v>
       </c>
@@ -16391,7 +13159,7 @@
         <v>6.0703878213611603E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="26" t="s">
         <v>454</v>
       </c>
@@ -16405,7 +13173,7 @@
         <v>6.4051402944234101E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="26" t="s">
         <v>455</v>
       </c>
@@ -16419,7 +13187,7 @@
         <v>7.8032799832215796E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="26" t="s">
         <v>456</v>
       </c>
@@ -16433,7 +13201,7 @@
         <v>9.1293942651653207E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="26" t="s">
         <v>457</v>
       </c>
@@ -16447,7 +13215,7 @@
         <v>7.2674867820140293E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="26" t="s">
         <v>458</v>
       </c>
@@ -16461,7 +13229,7 @@
         <v>9.3931647010253902E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="26" t="s">
         <v>459</v>
       </c>
@@ -16475,7 +13243,7 @@
         <v>0.127740354552834</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="26" t="s">
         <v>460</v>
       </c>
@@ -16489,7 +13257,7 @@
         <v>0.132552397573661</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="26" t="s">
         <v>461</v>
       </c>
@@ -16520,15 +13288,15 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="31.453125" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" customWidth="1"/>
-    <col min="10" max="10" width="7.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.46484375" customWidth="1"/>
+    <col min="2" max="2" width="31.46484375" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" customWidth="1"/>
+    <col min="10" max="10" width="7.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="29" t="s">
         <v>78</v>
       </c>
@@ -16557,7 +13325,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
@@ -16582,7 +13350,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>244</v>
       </c>
@@ -16607,7 +13375,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>245</v>
       </c>
@@ -16626,7 +13394,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>243</v>
       </c>
@@ -16649,7 +13417,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>248</v>
       </c>
@@ -16670,7 +13438,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>251</v>
       </c>
@@ -16689,7 +13457,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>252</v>
       </c>
@@ -16708,7 +13476,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>263</v>
       </c>
